--- a/Notes Marketplace/Database/Draft_NotemarketPlace_Database.xlsx
+++ b/Notes Marketplace/Database/Draft_NotemarketPlace_Database.xlsx
@@ -107,7 +107,7 @@
     <t>FirstName*</t>
   </si>
   <si>
-    <t>Requeired Information | 1-special character, 1-lowercase character, 1-digit character, no space</t>
+    <t xml:space="preserve">Requeired Information </t>
   </si>
   <si>
     <t>LastName*</t>
@@ -116,7 +116,7 @@
     <t>Password*</t>
   </si>
   <si>
-    <t>Requeired Information</t>
+    <t>Requeired Information | 1-special character, 1-lowercase character, 1-digit character, no space</t>
   </si>
   <si>
     <t>IsEmailVerified*</t>
@@ -520,9 +520,6 @@
     <t>5) Table:- DownloadedNotes</t>
   </si>
   <si>
-    <t>ID*</t>
-  </si>
-  <si>
     <t>OwnerID*</t>
   </si>
   <si>
@@ -871,6 +868,9 @@
     <t>11) Table:- MangeSystemConfugration</t>
   </si>
   <si>
+    <t>ID*</t>
+  </si>
+  <si>
     <t>SupportEmail*</t>
   </si>
   <si>
@@ -1182,6 +1182,9 @@
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1205,9 +1208,6 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1794,7 +1794,7 @@
       <c r="D11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="5"/>
@@ -1831,7 +1831,7 @@
       <c r="D12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="5"/>
@@ -1868,7 +1868,7 @@
       <c r="D13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="5"/>
@@ -1899,7 +1899,7 @@
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="18" t="s">
         <v>10</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="18" t="s">
         <v>27</v>
       </c>
@@ -1963,39 +1963,39 @@
       <c r="Y15" s="5"/>
     </row>
     <row r="16" ht="66.75" customHeight="1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
@@ -2004,7 +2004,7 @@
       <c r="B17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="18" t="s">
         <v>27</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="B18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="18" t="s">
         <v>27</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="B19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="18" t="s">
         <v>10</v>
       </c>
@@ -2105,7 +2105,7 @@
     <row r="20">
       <c r="A20" s="18"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
       <c r="F20" s="5"/>
@@ -2194,7 +2194,7 @@
       <c r="B23" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -2227,7 +2227,7 @@
     <row r="24">
       <c r="A24" s="18"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
       <c r="F24" s="5"/>
@@ -2258,7 +2258,7 @@
       <c r="B25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="18" t="s">
         <v>10</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="B28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="18" t="s">
         <v>27</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="B29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="21"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="18" t="s">
         <v>27</v>
       </c>
@@ -2437,7 +2437,7 @@
       <c r="B30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="18" t="s">
         <v>27</v>
       </c>
@@ -2472,7 +2472,7 @@
       <c r="B31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="18" t="s">
         <v>27</v>
       </c>
@@ -2501,17 +2501,17 @@
       <c r="Y31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="27" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="5"/>
@@ -2536,9 +2536,9 @@
       <c r="Y32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="30"/>
-      <c r="C33" s="28"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="30"/>
       <c r="E33" s="31"/>
       <c r="F33" s="32"/>
@@ -2563,9 +2563,9 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="30"/>
-      <c r="C34" s="28"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="30"/>
       <c r="E34" s="31"/>
       <c r="F34" s="32"/>
@@ -2621,7 +2621,7 @@
     <row r="36">
       <c r="A36" s="18"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="21"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="5"/>
@@ -2652,7 +2652,7 @@
       <c r="B37" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="16" t="s">
@@ -2685,7 +2685,7 @@
     <row r="38">
       <c r="A38" s="18"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="21"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="5"/>
@@ -2753,7 +2753,7 @@
       <c r="B40" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="18" t="s">
         <v>27</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="B43" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="21"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="18" t="s">
         <v>10</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="C44" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E44" s="19" t="s">
@@ -3265,7 +3265,7 @@
       <c r="B54" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="21"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="18" t="s">
         <v>10</v>
       </c>
@@ -3296,7 +3296,7 @@
     <row r="55">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
-      <c r="C55" s="21"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="10"/>
       <c r="E55" s="11"/>
       <c r="F55" s="5"/>
@@ -3352,7 +3352,7 @@
     <row r="57">
       <c r="A57" s="18"/>
       <c r="B57" s="10"/>
-      <c r="C57" s="21"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
       <c r="F57" s="5"/>
@@ -3383,7 +3383,7 @@
       <c r="B58" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="16" t="s">
@@ -3416,7 +3416,7 @@
     <row r="59">
       <c r="A59" s="18"/>
       <c r="B59" s="10"/>
-      <c r="C59" s="21"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="10"/>
       <c r="E59" s="11"/>
       <c r="F59" s="5"/>
@@ -3447,7 +3447,7 @@
       <c r="B60" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="21"/>
+      <c r="C60" s="22"/>
       <c r="D60" s="18" t="s">
         <v>10</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="B63" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="21"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="18" t="s">
         <v>10</v>
       </c>
@@ -3657,17 +3657,17 @@
       <c r="Y65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="20"/>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="21" t="s">
         <v>94</v>
       </c>
       <c r="F66" s="5"/>
@@ -3698,7 +3698,7 @@
       <c r="B67" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="21"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="18" t="s">
         <v>10</v>
       </c>
@@ -3733,7 +3733,7 @@
       <c r="B68" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="21"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="18" t="s">
         <v>27</v>
       </c>
@@ -3805,7 +3805,7 @@
       <c r="B70" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="21"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="18" t="s">
         <v>10</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="B77" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="21"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="18" t="s">
         <v>10</v>
       </c>
@@ -4137,7 +4137,7 @@
       <c r="C79" s="20">
         <v>50.0</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="19" t="s">
@@ -4171,7 +4171,7 @@
       <c r="B80" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="21"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="18" t="s">
         <v>27</v>
       </c>
@@ -4206,7 +4206,7 @@
       <c r="B81" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="21"/>
+      <c r="C81" s="22"/>
       <c r="D81" s="18" t="s">
         <v>10</v>
       </c>
@@ -4241,7 +4241,7 @@
       <c r="B82" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="21"/>
+      <c r="C82" s="22"/>
       <c r="D82" s="18" t="s">
         <v>27</v>
       </c>
@@ -4276,7 +4276,7 @@
       <c r="B83" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="21"/>
+      <c r="C83" s="22"/>
       <c r="D83" s="18" t="s">
         <v>27</v>
       </c>
@@ -4311,7 +4311,7 @@
       <c r="B84" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="21"/>
+      <c r="C84" s="22"/>
       <c r="D84" s="18" t="s">
         <v>10</v>
       </c>
@@ -4342,7 +4342,7 @@
     <row r="85">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
-      <c r="C85" s="21"/>
+      <c r="C85" s="22"/>
       <c r="D85" s="10"/>
       <c r="E85" s="11"/>
       <c r="F85" s="5"/>
@@ -4398,7 +4398,7 @@
     <row r="87">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
-      <c r="C87" s="21"/>
+      <c r="C87" s="22"/>
       <c r="D87" s="10"/>
       <c r="E87" s="11"/>
       <c r="F87" s="5"/>
@@ -4429,7 +4429,7 @@
       <c r="B88" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="16" t="s">
@@ -4462,7 +4462,7 @@
     <row r="89">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
-      <c r="C89" s="21"/>
+      <c r="C89" s="22"/>
       <c r="D89" s="10"/>
       <c r="E89" s="11"/>
       <c r="F89" s="5"/>
@@ -4487,13 +4487,13 @@
       <c r="Y89" s="5"/>
     </row>
     <row r="90">
-      <c r="A90" s="18" t="s">
-        <v>123</v>
+      <c r="A90" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="21"/>
+      <c r="C90" s="22"/>
       <c r="D90" s="18" t="s">
         <v>10</v>
       </c>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="91">
       <c r="A91" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>9</v>
@@ -4533,7 +4533,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -4563,12 +4563,12 @@
       <c r="B92" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="21"/>
+      <c r="C92" s="22"/>
       <c r="D92" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -4593,17 +4593,17 @@
     </row>
     <row r="93">
       <c r="A93" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="21"/>
+      <c r="C93" s="22"/>
       <c r="D93" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="94">
       <c r="A94" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>15</v>
@@ -4640,7 +4640,7 @@
         <v>10</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -4665,17 +4665,17 @@
     </row>
     <row r="95">
       <c r="A95" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="21"/>
+      <c r="C95" s="22"/>
       <c r="D95" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="96">
       <c r="A96" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>9</v>
@@ -4710,7 +4710,7 @@
         <v>10</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="102">
       <c r="A102" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -5021,8 +5021,8 @@
       <c r="Y105" s="5"/>
     </row>
     <row r="106">
-      <c r="A106" s="18" t="s">
-        <v>123</v>
+      <c r="A106" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>9</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="107">
       <c r="A107" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>9</v>
@@ -5067,7 +5067,7 @@
         <v>10</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -5097,12 +5097,12 @@
       <c r="B108" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C108" s="21"/>
+      <c r="C108" s="22"/>
       <c r="D108" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="109">
       <c r="A109" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>9</v>
@@ -5137,7 +5137,7 @@
         <v>10</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="110">
       <c r="A110" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>15</v>
@@ -5174,7 +5174,7 @@
         <v>10</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="111">
       <c r="A111" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>15</v>
@@ -5211,7 +5211,7 @@
         <v>10</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
@@ -5241,7 +5241,7 @@
       <c r="B112" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C112" s="21"/>
+      <c r="C112" s="22"/>
       <c r="D112" s="18" t="s">
         <v>10</v>
       </c>
@@ -5276,7 +5276,7 @@
       <c r="B113" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="21"/>
+      <c r="C113" s="22"/>
       <c r="D113" s="18" t="s">
         <v>27</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="B114" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="21"/>
+      <c r="C114" s="22"/>
       <c r="D114" s="18" t="s">
         <v>27</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="B115" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C115" s="21"/>
+      <c r="C115" s="22"/>
       <c r="D115" s="18" t="s">
         <v>10</v>
       </c>
@@ -5377,7 +5377,7 @@
     <row r="116">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
-      <c r="C116" s="21"/>
+      <c r="C116" s="22"/>
       <c r="D116" s="10"/>
       <c r="E116" s="11"/>
       <c r="F116" s="5"/>
@@ -5404,7 +5404,7 @@
     <row r="117">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
-      <c r="C117" s="21"/>
+      <c r="C117" s="22"/>
       <c r="D117" s="10"/>
       <c r="E117" s="11"/>
       <c r="F117" s="5"/>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="118">
       <c r="A118" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -5460,7 +5460,7 @@
     <row r="119">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
-      <c r="C119" s="21"/>
+      <c r="C119" s="22"/>
       <c r="D119" s="10"/>
       <c r="E119" s="11"/>
       <c r="F119" s="5"/>
@@ -5524,7 +5524,7 @@
     <row r="121">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
-      <c r="C121" s="21"/>
+      <c r="C121" s="22"/>
       <c r="D121" s="10"/>
       <c r="E121" s="11"/>
       <c r="F121" s="5"/>
@@ -5549,13 +5549,13 @@
       <c r="Y121" s="5"/>
     </row>
     <row r="122">
-      <c r="A122" s="18" t="s">
-        <v>123</v>
+      <c r="A122" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C122" s="21"/>
+      <c r="C122" s="22"/>
       <c r="D122" s="18" t="s">
         <v>10</v>
       </c>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="123">
       <c r="A123" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>9</v>
@@ -5595,7 +5595,7 @@
         <v>10</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
@@ -5625,12 +5625,12 @@
       <c r="B124" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C124" s="21"/>
+      <c r="C124" s="22"/>
       <c r="D124" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="125">
       <c r="A125" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>9</v>
@@ -5665,7 +5665,7 @@
         <v>10</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -5690,17 +5690,17 @@
     </row>
     <row r="126">
       <c r="A126" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C126" s="21"/>
+      <c r="C126" s="22"/>
       <c r="D126" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
@@ -5730,7 +5730,7 @@
       <c r="B127" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C127" s="21"/>
+      <c r="C127" s="22"/>
       <c r="D127" s="18" t="s">
         <v>10</v>
       </c>
@@ -5765,7 +5765,7 @@
       <c r="B128" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C128" s="21"/>
+      <c r="C128" s="22"/>
       <c r="D128" s="18" t="s">
         <v>27</v>
       </c>
@@ -5800,7 +5800,7 @@
       <c r="B129" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="21"/>
+      <c r="C129" s="22"/>
       <c r="D129" s="18" t="s">
         <v>27</v>
       </c>
@@ -5835,7 +5835,7 @@
       <c r="B130" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C130" s="21"/>
+      <c r="C130" s="22"/>
       <c r="D130" s="18" t="s">
         <v>10</v>
       </c>
@@ -5866,7 +5866,7 @@
     <row r="131">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
-      <c r="C131" s="21"/>
+      <c r="C131" s="22"/>
       <c r="D131" s="10"/>
       <c r="E131" s="11"/>
       <c r="F131" s="5"/>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="132">
       <c r="A132" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -5922,7 +5922,7 @@
     <row r="133">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
-      <c r="C133" s="21"/>
+      <c r="C133" s="22"/>
       <c r="D133" s="10"/>
       <c r="E133" s="11"/>
       <c r="F133" s="5"/>
@@ -5953,7 +5953,7 @@
       <c r="B134" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="16" t="s">
@@ -5986,7 +5986,7 @@
     <row r="135">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
-      <c r="C135" s="21"/>
+      <c r="C135" s="22"/>
       <c r="D135" s="10"/>
       <c r="E135" s="11"/>
       <c r="F135" s="5"/>
@@ -6011,18 +6011,18 @@
       <c r="Y135" s="5"/>
     </row>
     <row r="136">
-      <c r="A136" s="18" t="s">
-        <v>123</v>
+      <c r="A136" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C136" s="21"/>
+      <c r="C136" s="22"/>
       <c r="D136" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E136" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="137">
       <c r="A137" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>15</v>
@@ -6059,7 +6059,7 @@
         <v>10</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="138">
       <c r="A138" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>15</v>
@@ -6096,7 +6096,7 @@
         <v>10</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
@@ -6126,7 +6126,7 @@
       <c r="B139" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="21"/>
+      <c r="C139" s="22"/>
       <c r="D139" s="18" t="s">
         <v>10</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>10</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
@@ -6196,7 +6196,7 @@
       <c r="B141" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C141" s="21"/>
+      <c r="C141" s="22"/>
       <c r="D141" s="18" t="s">
         <v>27</v>
       </c>
@@ -6231,7 +6231,7 @@
       <c r="B142" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C142" s="21"/>
+      <c r="C142" s="22"/>
       <c r="D142" s="18" t="s">
         <v>27</v>
       </c>
@@ -6266,7 +6266,7 @@
       <c r="B143" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C143" s="21"/>
+      <c r="C143" s="22"/>
       <c r="D143" s="18" t="s">
         <v>10</v>
       </c>
@@ -6297,7 +6297,7 @@
     <row r="144">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
-      <c r="C144" s="21"/>
+      <c r="C144" s="22"/>
       <c r="D144" s="10"/>
       <c r="E144" s="11"/>
       <c r="F144" s="5"/>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="145">
       <c r="A145" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -6353,7 +6353,7 @@
     <row r="146">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
-      <c r="C146" s="21"/>
+      <c r="C146" s="22"/>
       <c r="D146" s="10"/>
       <c r="E146" s="11"/>
       <c r="F146" s="5"/>
@@ -6384,7 +6384,7 @@
       <c r="B147" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="16" t="s">
@@ -6417,7 +6417,7 @@
     <row r="148">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
-      <c r="C148" s="21"/>
+      <c r="C148" s="22"/>
       <c r="D148" s="10"/>
       <c r="E148" s="11"/>
       <c r="F148" s="5"/>
@@ -6442,13 +6442,13 @@
       <c r="Y148" s="5"/>
     </row>
     <row r="149">
-      <c r="A149" s="18" t="s">
-        <v>123</v>
+      <c r="A149" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C149" s="21"/>
+      <c r="C149" s="22"/>
       <c r="D149" s="18" t="s">
         <v>10</v>
       </c>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="150">
       <c r="A150" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>15</v>
@@ -6490,7 +6490,7 @@
         <v>10</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -6517,7 +6517,7 @@
       <c r="A151" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B151" s="27" t="s">
+      <c r="B151" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C151" s="33">
@@ -6527,7 +6527,7 @@
         <v>10</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -6557,7 +6557,7 @@
       <c r="B152" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C152" s="21"/>
+      <c r="C152" s="22"/>
       <c r="D152" s="18" t="s">
         <v>10</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>10</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="155">
       <c r="A155" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>26</v>
@@ -6697,7 +6697,7 @@
       <c r="B156" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C156" s="21"/>
+      <c r="C156" s="22"/>
       <c r="D156" s="18" t="s">
         <v>10</v>
       </c>
@@ -6728,7 +6728,7 @@
     <row r="157">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
-      <c r="C157" s="21"/>
+      <c r="C157" s="22"/>
       <c r="D157" s="10"/>
       <c r="E157" s="11"/>
       <c r="F157" s="5"/>
@@ -6754,7 +6754,7 @@
     </row>
     <row r="158">
       <c r="A158" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -6784,7 +6784,7 @@
     <row r="159">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
-      <c r="C159" s="21"/>
+      <c r="C159" s="22"/>
       <c r="D159" s="10"/>
       <c r="E159" s="11"/>
       <c r="F159" s="5"/>
@@ -6815,7 +6815,7 @@
       <c r="B160" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C160" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D160" s="16" t="s">
@@ -6848,7 +6848,7 @@
     <row r="161">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
-      <c r="C161" s="21"/>
+      <c r="C161" s="22"/>
       <c r="D161" s="10"/>
       <c r="E161" s="11"/>
       <c r="F161" s="5"/>
@@ -6873,13 +6873,13 @@
       <c r="Y161" s="5"/>
     </row>
     <row r="162">
-      <c r="A162" s="18" t="s">
-        <v>123</v>
+      <c r="A162" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="B162" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="21"/>
+      <c r="C162" s="22"/>
       <c r="D162" s="18" t="s">
         <v>10</v>
       </c>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="163">
       <c r="A163" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>15</v>
@@ -6921,7 +6921,7 @@
         <v>10</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -6946,7 +6946,7 @@
     </row>
     <row r="164">
       <c r="A164" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" s="18" t="s">
         <v>15</v>
@@ -6958,7 +6958,7 @@
         <v>10</v>
       </c>
       <c r="E164" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -6988,7 +6988,7 @@
       <c r="B165" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C165" s="21"/>
+      <c r="C165" s="22"/>
       <c r="D165" s="18" t="s">
         <v>10</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>10</v>
       </c>
       <c r="E166" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -7128,7 +7128,7 @@
       <c r="B169" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C169" s="21"/>
+      <c r="C169" s="22"/>
       <c r="D169" s="18" t="s">
         <v>10</v>
       </c>
@@ -7173,7 +7173,7 @@
     <row r="172">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
-      <c r="C172" s="21"/>
+      <c r="C172" s="22"/>
       <c r="D172" s="10"/>
       <c r="E172" s="11"/>
       <c r="F172" s="5"/>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="173">
       <c r="A173" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -7229,7 +7229,7 @@
     <row r="174">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
-      <c r="C174" s="21"/>
+      <c r="C174" s="22"/>
       <c r="D174" s="10"/>
       <c r="E174" s="11"/>
       <c r="F174" s="5"/>
@@ -7260,7 +7260,7 @@
       <c r="B175" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C175" s="26" t="s">
+      <c r="C175" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D175" s="16" t="s">
@@ -7293,7 +7293,7 @@
     <row r="176">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
-      <c r="C176" s="21"/>
+      <c r="C176" s="22"/>
       <c r="D176" s="10"/>
       <c r="E176" s="11"/>
       <c r="F176" s="5"/>
@@ -7319,17 +7319,17 @@
     </row>
     <row r="177">
       <c r="A177" s="18" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="B177" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C177" s="21"/>
+      <c r="C177" s="22"/>
       <c r="D177" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E177" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
@@ -7760,7 +7760,7 @@
       <c r="B189" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C189" s="21"/>
+      <c r="C189" s="22"/>
       <c r="D189" s="18" t="s">
         <v>27</v>
       </c>
@@ -7795,7 +7795,7 @@
       <c r="B190" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C190" s="21"/>
+      <c r="C190" s="22"/>
       <c r="D190" s="18" t="s">
         <v>10</v>
       </c>
@@ -7826,7 +7826,7 @@
     <row r="191">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
-      <c r="C191" s="21"/>
+      <c r="C191" s="22"/>
       <c r="D191" s="10"/>
       <c r="E191" s="11"/>
       <c r="F191" s="5"/>
@@ -7853,7 +7853,7 @@
     <row r="192">
       <c r="A192" s="18"/>
       <c r="B192" s="10"/>
-      <c r="C192" s="21"/>
+      <c r="C192" s="22"/>
       <c r="D192" s="10"/>
       <c r="E192" s="11"/>
       <c r="F192" s="5"/>
@@ -7909,7 +7909,7 @@
     <row r="194">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
-      <c r="C194" s="21"/>
+      <c r="C194" s="22"/>
       <c r="D194" s="10"/>
       <c r="E194" s="11"/>
       <c r="F194" s="5"/>
@@ -7940,7 +7940,7 @@
       <c r="B195" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C195" s="26" t="s">
+      <c r="C195" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="16" t="s">
@@ -7973,7 +7973,7 @@
     <row r="196">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
-      <c r="C196" s="21"/>
+      <c r="C196" s="22"/>
       <c r="D196" s="10"/>
       <c r="E196" s="11"/>
       <c r="F196" s="5"/>
@@ -8004,7 +8004,7 @@
       <c r="B197" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C197" s="21"/>
+      <c r="C197" s="22"/>
       <c r="D197" s="18" t="s">
         <v>10</v>
       </c>
